--- a/Excel/usuarios.xlsx
+++ b/Excel/usuarios.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maximiliano.nabarro\IdeaProjects\MiCorreoPageObjectBy\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maximiliano.nabarro\IdeaProjects\FrameworkAutomationCorreoArgentino\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94DBCBD-CE90-4E1D-944A-E89A84670AA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4700714C-6813-4F62-9242-8631F92D13DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{6EB33C33-E23F-4E49-AA56-A68F1B237B53}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{6EB33C33-E23F-4E49-AA56-A68F1B237B53}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="MiCorreo" sheetId="1" r:id="rId1"/>
+    <sheet name="SIE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>ezequiel_cf@yopmail.com</t>
   </si>
@@ -49,6 +50,12 @@
   </si>
   <si>
     <t>matiasmc@yopmail.com</t>
+  </si>
+  <si>
+    <t>Corasa2022!</t>
+  </si>
+  <si>
+    <t>sebastianregini1@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -101,13 +108,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -425,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B016A057-9B6E-49FE-9391-84B0F536198D}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,4 +586,34 @@
     <ignoredError sqref="B3 B5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C34640A-7A9F-4CD3-A11A-CC503D117564}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{70234E06-73F3-4F44-8B8A-21752F587AF5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>